--- a/Idei_Si_Principii/Obiective.xlsx
+++ b/Idei_Si_Principii/Obiective.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian Geanta\Documents\AndroidStudioProjects\SecurityPatrol\Idei_Si_Principii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35858DF7-0157-4431-A851-2D3E4091E486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{E0C7F342-DAA5-C442-892E-892749DF22AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Verificarea infiltraţiilor de apă</t>
   </si>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Verificarea stării de funcţionare </t>
   </si>
   <si>
-    <t>Tip</t>
-  </si>
-  <si>
     <t>Verificare</t>
   </si>
   <si>
@@ -102,6 +99,18 @@
   </si>
   <si>
     <t>Subsol 2</t>
+  </si>
+  <si>
+    <t>Tip verificare</t>
+  </si>
+  <si>
+    <t>Valori verificare</t>
+  </si>
+  <si>
+    <t>Functional, Nefuncțional</t>
+  </si>
+  <si>
+    <t>Roșu, Maro, Verde</t>
   </si>
 </sst>
 </file>
@@ -489,43 +498,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.55078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.82421875" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -533,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
@@ -545,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -553,10 +565,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -565,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -573,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -585,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -593,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -605,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -613,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -624,8 +636,11 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -633,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
@@ -645,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -653,10 +668,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
@@ -665,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -673,10 +688,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>3</v>
@@ -685,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -693,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -705,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -713,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -725,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -733,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>6</v>
@@ -744,8 +759,11 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -753,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -765,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -773,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>4</v>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -793,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -805,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -813,19 +831,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -833,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
